--- a/summary_files/hernia_54.01_item_combinations.xlsx
+++ b/summary_files/hernia_54.01_item_combinations.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -10997,7 +10997,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13847,7 +13847,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -14075,7 +14075,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -14417,7 +14417,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -14645,7 +14645,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -16925,7 +16925,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -17039,7 +17039,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18027,7 +18027,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18369,7 +18369,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -18749,7 +18749,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19015,7 +19015,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -20193,7 +20193,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -20345,7 +20345,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -20459,7 +20459,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -20497,7 +20497,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -20573,7 +20573,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21257,7 +21257,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -21409,7 +21409,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21561,7 +21561,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21599,7 +21599,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22131,7 +22131,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22245,7 +22245,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22397,7 +22397,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>bad outcome</t>
         </is>
       </c>
     </row>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -23157,7 +23157,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23347,7 +23347,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23423,7 +23423,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23499,7 +23499,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -23803,7 +23803,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24221,7 +24221,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24259,7 +24259,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24335,7 +24335,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24601,7 +24601,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24753,7 +24753,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -24829,7 +24829,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25095,7 +25095,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25323,7 +25323,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25741,7 +25741,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25817,7 +25817,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25855,7 +25855,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -25931,7 +25931,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -26159,7 +26159,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -26273,7 +26273,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -26463,7 +26463,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -26919,7 +26919,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -27185,7 +27185,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -27223,7 +27223,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -27413,7 +27413,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -27489,7 +27489,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -27527,7 +27527,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -27793,7 +27793,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -27945,7 +27945,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -28591,7 +28591,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -28667,7 +28667,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -28819,7 +28819,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -28857,7 +28857,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -29427,7 +29427,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -29579,7 +29579,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -29617,7 +29617,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -29769,7 +29769,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -29807,7 +29807,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -29921,7 +29921,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -30187,7 +30187,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -30225,7 +30225,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -30301,7 +30301,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -30339,7 +30339,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -30491,7 +30491,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -30833,7 +30833,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -31099,7 +31099,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -31137,7 +31137,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -31327,7 +31327,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -31365,7 +31365,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -31517,7 +31517,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -31821,7 +31821,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -31897,7 +31897,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -32087,7 +32087,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -32277,7 +32277,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -32657,7 +32657,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -32695,7 +32695,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -32961,7 +32961,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33037,7 +33037,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33151,7 +33151,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33227,7 +33227,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33341,7 +33341,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33379,7 +33379,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33493,7 +33493,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33721,7 +33721,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33873,7 +33873,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -33949,7 +33949,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34025,7 +34025,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34063,7 +34063,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>bad outcome</t>
         </is>
       </c>
     </row>
@@ -34139,7 +34139,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34215,7 +34215,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34291,7 +34291,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34367,7 +34367,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome</t>
         </is>
       </c>
     </row>
@@ -34443,7 +34443,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34481,7 +34481,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34519,7 +34519,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34557,7 +34557,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34823,7 +34823,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34861,7 +34861,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34899,7 +34899,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -34975,7 +34975,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35051,7 +35051,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35089,7 +35089,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35165,7 +35165,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35203,7 +35203,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35241,7 +35241,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35507,7 +35507,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35545,7 +35545,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35583,7 +35583,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -35621,7 +35621,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -35659,7 +35659,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -35887,7 +35887,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -35963,7 +35963,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -36001,7 +36001,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -36267,7 +36267,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36343,7 +36343,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36381,7 +36381,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36457,7 +36457,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36495,7 +36495,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36571,7 +36571,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36609,7 +36609,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36799,7 +36799,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -36989,7 +36989,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -37255,7 +37255,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -37293,7 +37293,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -37331,7 +37331,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -37521,7 +37521,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -37597,7 +37597,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -37673,7 +37673,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -37711,7 +37711,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -38205,7 +38205,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -38281,7 +38281,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -38509,7 +38509,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>moderate outcome, good outcome, bad outcome</t>
         </is>
       </c>
     </row>
@@ -38547,7 +38547,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -38585,7 +38585,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -38699,7 +38699,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39003,7 +39003,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39041,7 +39041,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39193,7 +39193,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39231,7 +39231,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39383,7 +39383,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39535,7 +39535,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39649,7 +39649,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -39915,7 +39915,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -40105,7 +40105,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40219,7 +40219,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40295,7 +40295,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40523,7 +40523,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40561,7 +40561,7 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40637,7 +40637,7 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40789,7 +40789,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -40865,7 +40865,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -41017,7 +41017,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41055,7 +41055,7 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41245,7 +41245,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41283,7 +41283,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41321,7 +41321,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41587,7 +41587,7 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41701,7 +41701,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41929,7 +41929,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -41967,7 +41967,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -42005,7 +42005,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -42081,7 +42081,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -42309,7 +42309,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -42347,7 +42347,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -42461,7 +42461,7 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -42575,7 +42575,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -43031,7 +43031,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -43411,7 +43411,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome, moderate outcome</t>
         </is>
       </c>
     </row>
@@ -43525,7 +43525,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -43563,7 +43563,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -43677,7 +43677,7 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>good outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -43753,7 +43753,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -43905,7 +43905,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>moderate outcome</t>
         </is>
       </c>
     </row>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -44551,7 +44551,7 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -44589,7 +44589,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -44627,7 +44627,7 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -44779,7 +44779,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -44969,7 +44969,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -45007,7 +45007,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -45083,7 +45083,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -45159,7 +45159,7 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -45349,7 +45349,7 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>good outcome, moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -45463,7 +45463,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -45501,7 +45501,7 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -45577,7 +45577,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -46071,7 +46071,7 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -46109,7 +46109,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -46413,7 +46413,7 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -46679,7 +46679,7 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -46717,7 +46717,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -46831,7 +46831,7 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -46983,7 +46983,7 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -47059,7 +47059,7 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -47097,7 +47097,7 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -47135,7 +47135,7 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>moderate outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -47211,7 +47211,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
@@ -47431,7 +47431,7 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>moderate outcome, good outcome</t>
+          <t>good outcome</t>
         </is>
       </c>
     </row>
